--- a/docs/investigacion/cuestionario/cuestionario-respuestas.xlsx
+++ b/docs/investigacion/cuestionario/cuestionario-respuestas.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OBLIGATORIO FUNDAMENTOS\proyecto-grupo-4-olivieri-urreta\docs\investigacion\cuestionario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C13F9A-60AD-4C83-8F35-12B2104540AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -119,9 +128,6 @@
   </si>
   <si>
     <t>Práctica, fácil de usar</t>
-  </si>
-  <si>
-    <t>35 - 50</t>
   </si>
   <si>
     <t xml:space="preserve">Que sea amigable para uso mensual:semanal y a la vez info robusta </t>
@@ -153,64 +159,71 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -400,26 +413,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" activeCellId="1" sqref="B26 D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="21.57"/>
+    <col min="1" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,9 +452,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44485.64591212963</v>
+        <v>44485.645912129628</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -453,7 +469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44485.64675644676</v>
       </c>
@@ -470,7 +486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44485.648063506946</v>
       </c>
@@ -487,9 +503,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44485.65443871528</v>
+        <v>44485.654438715283</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -504,9 +520,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44485.65872061343</v>
+        <v>44485.658720613428</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -521,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44485.660748634255</v>
       </c>
@@ -538,9 +554,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44485.66886430555</v>
+        <v>44485.668864305553</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -555,7 +571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44485.669598912034</v>
       </c>
@@ -572,9 +588,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44485.69944287037</v>
+        <v>44485.699442870369</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -589,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44485.707175034724</v>
       </c>
@@ -606,9 +622,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44485.70994202547</v>
+        <v>44485.709942025467</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -623,9 +639,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44485.7330390162</v>
+        <v>44485.733039016202</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -640,7 +656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44485.73822550926</v>
       </c>
@@ -657,9 +673,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44485.73930825232</v>
+        <v>44485.739308252319</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -674,7 +690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44485.741656087965</v>
       </c>
@@ -688,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44485.741921782406</v>
       </c>
@@ -705,7 +721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44485.742216099534</v>
       </c>
@@ -722,9 +738,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44485.77969759259</v>
+        <v>44485.779697592588</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
@@ -736,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44485.785134942125</v>
       </c>
@@ -753,7 +769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44485.785729490744</v>
       </c>
@@ -770,7 +786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44485.787321435186</v>
       </c>
@@ -787,9 +803,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44485.78909290509</v>
+        <v>44485.789092905092</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -804,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44485.79315287037</v>
       </c>
@@ -821,9 +837,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44485.79553790509</v>
+        <v>44485.795537905091</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -838,26 +854,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44485.799</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>44485.798999999999</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44485.79917078704</v>
+        <v>44485.799170787039</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
@@ -869,12 +885,12 @@
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44485.81805289352</v>
+        <v>44485.818052893519</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
@@ -886,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44485.82557508102</v>
       </c>
@@ -903,12 +919,12 @@
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44485.83131245371</v>
+        <v>44485.831312453709</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
@@ -920,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44485.837245601855</v>
       </c>
@@ -937,12 +953,12 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44485.84440901621</v>
+        <v>44485.844409016208</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
@@ -954,9 +970,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44485.85675</v>
+        <v>44485.856749999999</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
@@ -968,12 +984,12 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44485.89909560185</v>
+        <v>44485.899095601853</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
@@ -985,10 +1001,10 @@
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>